--- a/20250106_STORMS_Excel_1.03.xlsx
+++ b/20250106_STORMS_Excel_1.03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rploeg\Documents\Github\PARAFAC4Microbiome_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC296A7-F4B2-4779-8A82-52AB009834E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8EF0AC-5E4B-4D63-B7DB-3AD22F41CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2146,73 +2146,73 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Lines 14-35</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Lines 22-23</t>
-  </si>
-  <si>
-    <t>Lines 24-30</t>
-  </si>
-  <si>
-    <t>Lines 38-66</t>
-  </si>
-  <si>
-    <t>Lines 56-66</t>
-  </si>
-  <si>
-    <t>Lines 240-289</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Specified in the original publication of exemplary studies</t>
   </si>
   <si>
-    <t>Lines 176-239</t>
-  </si>
-  <si>
-    <t>Lines 104-175 and 290-344</t>
-  </si>
-  <si>
-    <t>Lines 345-355</t>
-  </si>
-  <si>
-    <t>Lines 104-355</t>
-  </si>
-  <si>
-    <t>Lines 584-589</t>
-  </si>
-  <si>
-    <t>Lines 356-524</t>
-  </si>
-  <si>
-    <t>Cluster analysis, lines 478-524</t>
-  </si>
-  <si>
-    <t>Lines 526-533</t>
-  </si>
-  <si>
-    <t>Lines 546-562</t>
-  </si>
-  <si>
-    <t>Lines 526-562</t>
-  </si>
-  <si>
-    <t>Lines 592-594</t>
-  </si>
-  <si>
-    <t>Lines 601-602</t>
-  </si>
-  <si>
-    <t>Lines 590-591</t>
-  </si>
-  <si>
     <t>Separate file</t>
+  </si>
+  <si>
+    <t>Lines 14-30</t>
+  </si>
+  <si>
+    <t>Lines 20-22</t>
+  </si>
+  <si>
+    <t>Lines 23-27</t>
+  </si>
+  <si>
+    <t>Lines 42-70</t>
+  </si>
+  <si>
+    <t>Lines 60-68</t>
+  </si>
+  <si>
+    <t>Lines 244-293</t>
+  </si>
+  <si>
+    <t>Lines 180-243</t>
+  </si>
+  <si>
+    <t>Lines 109-179 and 294-348</t>
+  </si>
+  <si>
+    <t>Lines 349-359</t>
+  </si>
+  <si>
+    <t>Lines 109-359</t>
+  </si>
+  <si>
+    <t>Lines 588-593</t>
+  </si>
+  <si>
+    <t>Lines 360-528</t>
+  </si>
+  <si>
+    <t>Cluster analysis, lines 482-528</t>
+  </si>
+  <si>
+    <t>Lines 530-537</t>
+  </si>
+  <si>
+    <t>Lines 550-566</t>
+  </si>
+  <si>
+    <t>Lines 530-566</t>
+  </si>
+  <si>
+    <t>Lines 596-598</t>
+  </si>
+  <si>
+    <t>Lines 605-606</t>
+  </si>
+  <si>
+    <t>Lines 594-598</t>
   </si>
 </sst>
 </file>
@@ -2955,8 +2955,8 @@
   <dimension ref="A1:Y1016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3035,7 +3035,7 @@
         <v>608</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -3076,7 +3076,7 @@
         <v>608</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="I5" s="30"/>
     </row>
@@ -3097,10 +3097,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="I6" s="30"/>
     </row>
@@ -3122,7 +3122,7 @@
         <v>608</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="I7" s="64"/>
     </row>
@@ -3155,7 +3155,7 @@
         <v>608</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
         <v>608</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -3209,7 +3209,7 @@
         <v>608</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3232,7 +3232,7 @@
         <v>608</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3255,7 +3255,7 @@
         <v>608</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3278,7 +3278,7 @@
         <v>608</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3298,10 +3298,10 @@
         <v>41</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3321,10 +3321,10 @@
         <v>44</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3347,7 +3347,7 @@
         <v>608</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3370,7 +3370,7 @@
         <v>608</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3390,10 +3390,10 @@
         <v>53</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3411,10 +3411,10 @@
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,10 +3434,10 @@
         <v>58</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3460,7 +3460,7 @@
         <v>608</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3480,10 +3480,10 @@
         <v>65</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3503,10 +3503,10 @@
         <v>68</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3526,10 +3526,10 @@
         <v>72</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3547,10 +3547,10 @@
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3568,10 +3568,10 @@
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3591,10 +3591,10 @@
         <v>80</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3614,10 +3614,10 @@
         <v>80</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3637,10 +3637,10 @@
         <v>85</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>608</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3686,7 +3686,7 @@
         <v>608</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3706,10 +3706,10 @@
         <v>95</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3729,10 +3729,10 @@
         <v>98</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3752,7 +3752,7 @@
         <v>101</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3772,7 +3772,7 @@
         <v>101</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3792,7 +3792,7 @@
         <v>101</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>608</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3835,7 +3835,7 @@
         <v>112</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>115</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3878,7 +3878,7 @@
         <v>608</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3901,7 +3901,7 @@
         <v>608</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3922,7 +3922,7 @@
         <v>608</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3945,7 +3945,7 @@
         <v>608</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3966,7 +3966,7 @@
         <v>608</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3987,7 +3987,7 @@
         <v>608</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="26" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -4010,7 +4010,7 @@
         <v>608</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>608</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -4054,7 +4054,7 @@
         <v>608</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -4077,7 +4077,7 @@
         <v>608</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="26" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <v>608</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -4120,10 +4120,10 @@
         <v>151</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="26" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
@@ -4146,7 +4146,7 @@
         <v>608</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="26" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
@@ -4169,7 +4169,7 @@
         <v>608</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4192,7 +4192,7 @@
         <v>608</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="47" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>608</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4245,10 +4245,10 @@
         <v>167</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>608</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="26" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -4294,7 +4294,7 @@
         <v>608</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="26" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
@@ -4314,7 +4314,7 @@
         <v>176</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="27" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="47" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
@@ -4355,7 +4355,7 @@
         <v>608</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4386,7 +4386,7 @@
         <v>608</v>
       </c>
       <c r="G66" s="45" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="26" customFormat="1" ht="229.5" x14ac:dyDescent="0.2">
@@ -4409,7 +4409,7 @@
         <v>608</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -4432,7 +4432,7 @@
         <v>608</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4452,10 +4452,10 @@
         <v>193</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4475,7 +4475,7 @@
         <v>196</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4496,7 +4496,7 @@
         <v>608</v>
       </c>
       <c r="G71" s="47" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -4527,7 +4527,7 @@
         <v>608</v>
       </c>
       <c r="G73" s="45" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -4550,7 +4550,7 @@
         <v>608</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -4571,7 +4571,7 @@
         <v>608</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4592,7 +4592,7 @@
         <v>608</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="26" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>608</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
